--- a/romaneio.xlsx
+++ b/romaneio.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://palmont2-my.sharepoint.com/personal/isaac_dutra_palmont_com_br/Documents/Documentos/modelo suportes app/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IsaacDutraPalmont\Downloads\app teste - Copia - Copia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="159" documentId="13_ncr:1_{D9870B44-9492-454C-9D39-39DD7994CE0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{922E66F9-54E2-4556-92BB-5DE708BDBBF3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D68A0D-88D8-4A82-B796-CC2AB03D3DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapa de Suportes" sheetId="1" r:id="rId1"/>
@@ -5332,52 +5332,52 @@
   <dimension ref="A1:AL466"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="Z9" sqref="Z9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="13.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="13.81640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="6" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7265625" style="1" customWidth="1"/>
     <col min="7" max="7" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.26953125" style="2" customWidth="1"/>
     <col min="10" max="10" width="15" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="7.28515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="7.42578125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="6.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.54296875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7.26953125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.81640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="7.453125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="6.7265625" style="1" customWidth="1"/>
     <col min="16" max="16" width="13" style="1" customWidth="1"/>
-    <col min="17" max="17" width="7.28515625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10.28515625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.26953125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.26953125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="13.453125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="14.26953125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="13.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="17" style="1" customWidth="1"/>
-    <col min="23" max="23" width="11.140625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="16.28515625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="17.28515625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="16.7109375" style="1" customWidth="1"/>
-    <col min="28" max="28" width="12.85546875" style="2" customWidth="1"/>
-    <col min="29" max="29" width="11.5703125" style="1" customWidth="1"/>
-    <col min="30" max="30" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.7109375" style="1" customWidth="1"/>
-    <col min="32" max="32" width="14.28515625" style="2" customWidth="1"/>
-    <col min="33" max="33" width="15.140625" style="1" customWidth="1"/>
-    <col min="34" max="34" width="12.5703125" style="1" customWidth="1"/>
-    <col min="35" max="35" width="12.28515625" style="1" customWidth="1"/>
-    <col min="36" max="36" width="13.5703125" style="1" customWidth="1"/>
-    <col min="37" max="37" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="16384" width="12.140625" style="1"/>
+    <col min="23" max="23" width="11.1796875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="16.26953125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="17.26953125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="14.54296875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="16.7265625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="12.81640625" style="2" customWidth="1"/>
+    <col min="29" max="29" width="11.54296875" style="1" customWidth="1"/>
+    <col min="30" max="30" width="20.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.7265625" style="1" customWidth="1"/>
+    <col min="32" max="32" width="14.26953125" style="2" customWidth="1"/>
+    <col min="33" max="33" width="15.1796875" style="1" customWidth="1"/>
+    <col min="34" max="34" width="12.54296875" style="1" customWidth="1"/>
+    <col min="35" max="35" width="12.26953125" style="1" customWidth="1"/>
+    <col min="36" max="36" width="13.54296875" style="1" customWidth="1"/>
+    <col min="37" max="37" width="5.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="16384" width="12.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -5493,7 +5493,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>47</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>2$S-5101A$ID-350</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>47</v>
       </c>
@@ -5695,7 +5695,7 @@
         <v>2$S-5101B$ID-351</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>47</v>
       </c>
@@ -5796,7 +5796,7 @@
         <v>2$S-5102$ID-352</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>47</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>2$S-5103A$ID-353</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>47</v>
       </c>
@@ -5998,7 +5998,7 @@
         <v>2$S-5103B$ID-354</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>47</v>
       </c>
@@ -6099,7 +6099,7 @@
         <v>2$S-5104A$ID-355</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>47</v>
       </c>
@@ -6200,7 +6200,7 @@
         <v>2$S-5104B$ID-356</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>47</v>
       </c>
@@ -6301,7 +6301,7 @@
         <v>2$S-5105$ID-357</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>47</v>
       </c>
@@ -6402,7 +6402,7 @@
         <v>2$S-5107$ID-358</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
@@ -6503,7 +6503,7 @@
         <v>2$S-5108$ID-359</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>47</v>
       </c>
@@ -6604,7 +6604,7 @@
         <v>2$S-5109$ID-360</v>
       </c>
     </row>
-    <row r="13" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>47</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>2$S-5110$ID-361</v>
       </c>
     </row>
-    <row r="14" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>47</v>
       </c>
@@ -6806,7 +6806,7 @@
         <v>2$S-5111$ID-362</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>47</v>
       </c>
@@ -6907,7 +6907,7 @@
         <v>2$S-5112$ID-363</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>47</v>
       </c>
@@ -7008,7 +7008,7 @@
         <v>2$S-5115$ID-364</v>
       </c>
     </row>
-    <row r="17" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>47</v>
       </c>
@@ -7109,7 +7109,7 @@
         <v>2$S-5116$ID-365</v>
       </c>
     </row>
-    <row r="18" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>47</v>
       </c>
@@ -7210,7 +7210,7 @@
         <v>2$S-5118$ID-366</v>
       </c>
     </row>
-    <row r="19" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>47</v>
       </c>
@@ -7311,7 +7311,7 @@
         <v>2$S-5252$ID-367</v>
       </c>
     </row>
-    <row r="20" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>47</v>
       </c>
@@ -7412,7 +7412,7 @@
         <v>2$S-5265$ID-368</v>
       </c>
     </row>
-    <row r="21" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>47</v>
       </c>
@@ -7511,7 +7511,7 @@
         <v>2$S-102$ID-369</v>
       </c>
     </row>
-    <row r="22" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>47</v>
       </c>
@@ -7610,7 +7610,7 @@
         <v>2$S-103$ID-370</v>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>47</v>
       </c>
@@ -7709,7 +7709,7 @@
         <v>2$S-106$ID-371</v>
       </c>
     </row>
-    <row r="24" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>47</v>
       </c>
@@ -7808,7 +7808,7 @@
         <v>2$S-106-B$ID-372</v>
       </c>
     </row>
-    <row r="25" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>47</v>
       </c>
@@ -7907,7 +7907,7 @@
         <v>2$S-4108$ID-373</v>
       </c>
     </row>
-    <row r="26" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>47</v>
       </c>
@@ -8006,7 +8006,7 @@
         <v>2$S-4108-B$ID-374</v>
       </c>
     </row>
-    <row r="27" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>47</v>
       </c>
@@ -8105,7 +8105,7 @@
         <v>2$S-4109$ID-375</v>
       </c>
     </row>
-    <row r="28" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>47</v>
       </c>
@@ -8204,7 +8204,7 @@
         <v>2$S-565$ID-376</v>
       </c>
     </row>
-    <row r="29" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>47</v>
       </c>
@@ -8303,7 +8303,7 @@
         <v>2$S-566$ID-377</v>
       </c>
     </row>
-    <row r="30" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>47</v>
       </c>
@@ -8402,7 +8402,7 @@
         <v>2$S-4124$ID-378</v>
       </c>
     </row>
-    <row r="31" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>47</v>
       </c>
@@ -8501,7 +8501,7 @@
         <v>2$S-5106$ID-379</v>
       </c>
     </row>
-    <row r="32" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>47</v>
       </c>
@@ -8606,7 +8606,7 @@
         <v>2$S-5201$ID-380</v>
       </c>
     </row>
-    <row r="33" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
         <v>47</v>
       </c>
@@ -8711,7 +8711,7 @@
         <v>2$S-5202$ID-381</v>
       </c>
     </row>
-    <row r="34" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>47</v>
       </c>
@@ -8816,7 +8816,7 @@
         <v>2$S-5203$ID-382</v>
       </c>
     </row>
-    <row r="35" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
         <v>47</v>
       </c>
@@ -8915,7 +8915,7 @@
         <v>2$S-5204$ID-383</v>
       </c>
     </row>
-    <row r="36" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>47</v>
       </c>
@@ -9014,7 +9014,7 @@
         <v>2$S-5205$ID-384</v>
       </c>
     </row>
-    <row r="37" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>47</v>
       </c>
@@ -9119,7 +9119,7 @@
         <v>2$S-5206$ID-385</v>
       </c>
     </row>
-    <row r="38" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -9224,7 +9224,7 @@
         <v>2$S-5207$ID-386</v>
       </c>
     </row>
-    <row r="39" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>47</v>
       </c>
@@ -9329,7 +9329,7 @@
         <v>2$S-5208$ID-387</v>
       </c>
     </row>
-    <row r="40" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>47</v>
       </c>
@@ -9434,7 +9434,7 @@
         <v>2$S-5209$ID-388</v>
       </c>
     </row>
-    <row r="41" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
         <v>47</v>
       </c>
@@ -9539,7 +9539,7 @@
         <v>2$S-5210$ID-389</v>
       </c>
     </row>
-    <row r="42" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>47</v>
       </c>
@@ -9644,7 +9644,7 @@
         <v>2$S-5211$ID-390</v>
       </c>
     </row>
-    <row r="43" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
         <v>47</v>
       </c>
@@ -9749,7 +9749,7 @@
         <v>2$S-5212$ID-391</v>
       </c>
     </row>
-    <row r="44" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>47</v>
       </c>
@@ -9854,7 +9854,7 @@
         <v>2$S-5213$ID-392</v>
       </c>
     </row>
-    <row r="45" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
         <v>47</v>
       </c>
@@ -9953,7 +9953,7 @@
         <v>2$S-5214$ID-393</v>
       </c>
     </row>
-    <row r="46" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>47</v>
       </c>
@@ -10052,7 +10052,7 @@
         <v>2$S-5215$ID-394</v>
       </c>
     </row>
-    <row r="47" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
         <v>47</v>
       </c>
@@ -10151,7 +10151,7 @@
         <v>2$S-5216$ID-395</v>
       </c>
     </row>
-    <row r="48" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>47</v>
       </c>
@@ -10256,7 +10256,7 @@
         <v>2$S-5217$ID-396</v>
       </c>
     </row>
-    <row r="49" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
         <v>47</v>
       </c>
@@ -10355,7 +10355,7 @@
         <v>2$S-5218$ID-397</v>
       </c>
     </row>
-    <row r="50" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>47</v>
       </c>
@@ -10460,7 +10460,7 @@
         <v>2$S-5219$ID-398</v>
       </c>
     </row>
-    <row r="51" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
         <v>47</v>
       </c>
@@ -10559,7 +10559,7 @@
         <v>2$S-5220$ID-399</v>
       </c>
     </row>
-    <row r="52" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>47</v>
       </c>
@@ -10658,7 +10658,7 @@
         <v>2$S-5221$ID-400</v>
       </c>
     </row>
-    <row r="53" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="6" t="s">
         <v>47</v>
       </c>
@@ -10763,7 +10763,7 @@
         <v>2$S-5222$ID-401</v>
       </c>
     </row>
-    <row r="54" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>47</v>
       </c>
@@ -10868,7 +10868,7 @@
         <v>2$S-5223$ID-402</v>
       </c>
     </row>
-    <row r="55" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
         <v>47</v>
       </c>
@@ -10967,7 +10967,7 @@
         <v>2$S-5224$ID-403</v>
       </c>
     </row>
-    <row r="56" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>47</v>
       </c>
@@ -11066,7 +11066,7 @@
         <v>2$S-5225$ID-404</v>
       </c>
     </row>
-    <row r="57" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="6" t="s">
         <v>47</v>
       </c>
@@ -11171,7 +11171,7 @@
         <v>2$S-5226$ID-405</v>
       </c>
     </row>
-    <row r="58" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>47</v>
       </c>
@@ -11270,7 +11270,7 @@
         <v>2$S-5227$ID-406</v>
       </c>
     </row>
-    <row r="59" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="6" t="s">
         <v>47</v>
       </c>
@@ -11369,7 +11369,7 @@
         <v>2$S-5228$ID-407</v>
       </c>
     </row>
-    <row r="60" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>47</v>
       </c>
@@ -11468,7 +11468,7 @@
         <v>2$S-5229$ID-408</v>
       </c>
     </row>
-    <row r="61" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="6" t="s">
         <v>47</v>
       </c>
@@ -11567,7 +11567,7 @@
         <v>2$S-5230$ID-409</v>
       </c>
     </row>
-    <row r="62" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>47</v>
       </c>
@@ -11672,7 +11672,7 @@
         <v>2$S-5231$ID-410</v>
       </c>
     </row>
-    <row r="63" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
         <v>47</v>
       </c>
@@ -11777,7 +11777,7 @@
         <v>2$S-5232$ID-411</v>
       </c>
     </row>
-    <row r="64" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>47</v>
       </c>
@@ -11876,7 +11876,7 @@
         <v>2$S-5233$ID-412</v>
       </c>
     </row>
-    <row r="65" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="6" t="s">
         <v>47</v>
       </c>
@@ -11975,7 +11975,7 @@
         <v>2$S-5234$ID-413</v>
       </c>
     </row>
-    <row r="66" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>47</v>
       </c>
@@ -12080,7 +12080,7 @@
         <v>2$S-5235$ID-414</v>
       </c>
     </row>
-    <row r="67" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="6" t="s">
         <v>47</v>
       </c>
@@ -12185,7 +12185,7 @@
         <v>2$S-5236$ID-415</v>
       </c>
     </row>
-    <row r="68" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>47</v>
       </c>
@@ -12290,7 +12290,7 @@
         <v>2$S-5237$ID-416</v>
       </c>
     </row>
-    <row r="69" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="6" t="s">
         <v>47</v>
       </c>
@@ -12389,7 +12389,7 @@
         <v>2$S-5238$ID-417</v>
       </c>
     </row>
-    <row r="70" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>47</v>
       </c>
@@ -12494,7 +12494,7 @@
         <v>2$S-5239$ID-418</v>
       </c>
     </row>
-    <row r="71" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="6" t="s">
         <v>47</v>
       </c>
@@ -12593,7 +12593,7 @@
         <v>2$S-5240$ID-419</v>
       </c>
     </row>
-    <row r="72" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>47</v>
       </c>
@@ -12698,7 +12698,7 @@
         <v>2$S-5241$ID-420</v>
       </c>
     </row>
-    <row r="73" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="6" t="s">
         <v>47</v>
       </c>
@@ -12797,7 +12797,7 @@
         <v>2$S-5242$ID-421</v>
       </c>
     </row>
-    <row r="74" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>47</v>
       </c>
@@ -12896,7 +12896,7 @@
         <v>2$S-5243$ID-422</v>
       </c>
     </row>
-    <row r="75" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="6" t="s">
         <v>47</v>
       </c>
@@ -13001,7 +13001,7 @@
         <v>2$S-5244$ID-423</v>
       </c>
     </row>
-    <row r="76" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>47</v>
       </c>
@@ -13100,7 +13100,7 @@
         <v>2$S-5245$ID-424</v>
       </c>
     </row>
-    <row r="77" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="6" t="s">
         <v>47</v>
       </c>
@@ -13205,7 +13205,7 @@
         <v>2$S-5246$ID-425</v>
       </c>
     </row>
-    <row r="78" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>47</v>
       </c>
@@ -13310,7 +13310,7 @@
         <v>2$S-5247$ID-426</v>
       </c>
     </row>
-    <row r="79" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="6" t="s">
         <v>47</v>
       </c>
@@ -13415,7 +13415,7 @@
         <v>2$S-5248$ID-427</v>
       </c>
     </row>
-    <row r="80" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>47</v>
       </c>
@@ -13520,7 +13520,7 @@
         <v>2$S-5249$ID-428</v>
       </c>
     </row>
-    <row r="81" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="6" t="s">
         <v>47</v>
       </c>
@@ -13625,7 +13625,7 @@
         <v>2$S-5250$ID-429</v>
       </c>
     </row>
-    <row r="82" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>47</v>
       </c>
@@ -13724,7 +13724,7 @@
         <v>2$S-5251$ID-430</v>
       </c>
     </row>
-    <row r="83" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="6" t="s">
         <v>47</v>
       </c>
@@ -13823,7 +13823,7 @@
         <v>2$S-5253$ID-431</v>
       </c>
     </row>
-    <row r="84" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>47</v>
       </c>
@@ -13922,7 +13922,7 @@
         <v>2$S-5254$ID-432</v>
       </c>
     </row>
-    <row r="85" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="6" t="s">
         <v>47</v>
       </c>
@@ -14021,7 +14021,7 @@
         <v>2$S-5255$ID-433</v>
       </c>
     </row>
-    <row r="86" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>47</v>
       </c>
@@ -14126,7 +14126,7 @@
         <v>2$S-5256$ID-434</v>
       </c>
     </row>
-    <row r="87" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="6" t="s">
         <v>47</v>
       </c>
@@ -14225,7 +14225,7 @@
         <v>2$S-5257$ID-435</v>
       </c>
     </row>
-    <row r="88" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
         <v>47</v>
       </c>
@@ -14324,7 +14324,7 @@
         <v>2$S-5258$ID-436</v>
       </c>
     </row>
-    <row r="89" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="6" t="s">
         <v>47</v>
       </c>
@@ -14423,7 +14423,7 @@
         <v>2$S-5259$ID-437</v>
       </c>
     </row>
-    <row r="90" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>47</v>
       </c>
@@ -14522,7 +14522,7 @@
         <v>2$S-5260$ID-438</v>
       </c>
     </row>
-    <row r="91" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="6" t="s">
         <v>47</v>
       </c>
@@ -14621,7 +14621,7 @@
         <v>2$S-5261$ID-439</v>
       </c>
     </row>
-    <row r="92" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
         <v>47</v>
       </c>
@@ -14720,7 +14720,7 @@
         <v>2$S-5262$ID-440</v>
       </c>
     </row>
-    <row r="93" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="6" t="s">
         <v>47</v>
       </c>
@@ -14819,7 +14819,7 @@
         <v>2$S-5263$ID-441</v>
       </c>
     </row>
-    <row r="94" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
         <v>47</v>
       </c>
@@ -14924,7 +14924,7 @@
         <v>2$S-5264$ID-442</v>
       </c>
     </row>
-    <row r="95" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="6" t="s">
         <v>47</v>
       </c>
@@ -15029,7 +15029,7 @@
         <v>2$S-5266$ID-443</v>
       </c>
     </row>
-    <row r="96" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
         <v>47</v>
       </c>
@@ -15134,7 +15134,7 @@
         <v>2$S-5267$ID-444</v>
       </c>
     </row>
-    <row r="97" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="6" t="s">
         <v>47</v>
       </c>
@@ -15233,7 +15233,7 @@
         <v>2$S-5268$ID-445</v>
       </c>
     </row>
-    <row r="98" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
         <v>47</v>
       </c>
@@ -15338,7 +15338,7 @@
         <v>2$S-5269$ID-446</v>
       </c>
     </row>
-    <row r="99" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="6" t="s">
         <v>47</v>
       </c>
@@ -15437,7 +15437,7 @@
         <v>2$S-5270$ID-447</v>
       </c>
     </row>
-    <row r="100" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
         <v>47</v>
       </c>
@@ -15542,7 +15542,7 @@
         <v>2$S-5301$ID-448</v>
       </c>
     </row>
-    <row r="101" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="6" t="s">
         <v>47</v>
       </c>
@@ -15647,7 +15647,7 @@
         <v>2$S-5302$ID-449</v>
       </c>
     </row>
-    <row r="102" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
         <v>47</v>
       </c>
@@ -15752,7 +15752,7 @@
         <v>2$S-5303$ID-450</v>
       </c>
     </row>
-    <row r="103" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="6" t="s">
         <v>47</v>
       </c>
@@ -15851,7 +15851,7 @@
         <v>2$S-5304$ID-451</v>
       </c>
     </row>
-    <row r="104" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
         <v>47</v>
       </c>
@@ -15956,7 +15956,7 @@
         <v>2$S-5305$ID-452</v>
       </c>
     </row>
-    <row r="105" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="6" t="s">
         <v>47</v>
       </c>
@@ -16055,7 +16055,7 @@
         <v>2$S-5306$ID-453</v>
       </c>
     </row>
-    <row r="106" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
         <v>47</v>
       </c>
@@ -16154,7 +16154,7 @@
         <v>2$SPFF-3065$ID-454</v>
       </c>
     </row>
-    <row r="107" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="6" t="s">
         <v>47</v>
       </c>
@@ -16253,7 +16253,7 @@
         <v>2$SPFF-2366$ID-455</v>
       </c>
     </row>
-    <row r="108" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
         <v>47</v>
       </c>
@@ -16352,7 +16352,7 @@
         <v>2$SPFF-2369$ID-456</v>
       </c>
     </row>
-    <row r="109" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="6" t="s">
         <v>47</v>
       </c>
@@ -16451,7 +16451,7 @@
         <v>2$SPFF-2375$ID-457</v>
       </c>
     </row>
-    <row r="110" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
         <v>47</v>
       </c>
@@ -16550,7 +16550,7 @@
         <v>2$SPFF-2380$ID-458</v>
       </c>
     </row>
-    <row r="111" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="6" t="s">
         <v>47</v>
       </c>
@@ -16649,7 +16649,7 @@
         <v>2$SPFF-2381$ID-459</v>
       </c>
     </row>
-    <row r="112" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
         <v>47</v>
       </c>
@@ -16748,7 +16748,7 @@
         <v>2$SPFF-2388-89$ID-460</v>
       </c>
     </row>
-    <row r="113" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="6" t="s">
         <v>47</v>
       </c>
@@ -16847,7 +16847,7 @@
         <v>2$SPFF-2690$ID-461</v>
       </c>
     </row>
-    <row r="114" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
         <v>47</v>
       </c>
@@ -16946,7 +16946,7 @@
         <v>2$SPFF-2691$ID-462</v>
       </c>
     </row>
-    <row r="115" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="6" t="s">
         <v>47</v>
       </c>
@@ -17045,7 +17045,7 @@
         <v>2$SPFF-2692-2693$ID-463</v>
       </c>
     </row>
-    <row r="116" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
         <v>47</v>
       </c>
@@ -17144,7 +17144,7 @@
         <v>2$SPFF-2694-2695$ID-464</v>
       </c>
     </row>
-    <row r="117" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="6" t="s">
         <v>47</v>
       </c>
@@ -17243,7 +17243,7 @@
         <v>2$SPPR-2300$ID-465</v>
       </c>
     </row>
-    <row r="118" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
         <v>47</v>
       </c>
@@ -17342,7 +17342,7 @@
         <v>2$AC1-S-002-6''$ID-245</v>
       </c>
     </row>
-    <row r="119" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="6" t="s">
         <v>47</v>
       </c>
@@ -17441,7 +17441,7 @@
         <v>2$AC1-S-002-4''$ID-246</v>
       </c>
     </row>
-    <row r="120" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
         <v>47</v>
       </c>
@@ -17540,7 +17540,7 @@
         <v>2$AG1-S-036-2''$ID-247</v>
       </c>
     </row>
-    <row r="121" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="6" t="s">
         <v>47</v>
       </c>
@@ -17639,7 +17639,7 @@
         <v>2$AG1-S-036-1.1-2''$ID-248</v>
       </c>
     </row>
-    <row r="122" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
         <v>47</v>
       </c>
@@ -17738,7 +17738,7 @@
         <v>2$AG1-S-037-8'''$ID-249</v>
       </c>
     </row>
-    <row r="123" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="6" t="s">
         <v>47</v>
       </c>
@@ -17837,7 +17837,7 @@
         <v>2$AG1-S-037-6''$ID-250</v>
       </c>
     </row>
-    <row r="124" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
         <v>47</v>
       </c>
@@ -17942,7 +17942,7 @@
         <v>2$AG1-S-037-4''$ID-251</v>
       </c>
     </row>
-    <row r="125" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="6" t="s">
         <v>47</v>
       </c>
@@ -18047,7 +18047,7 @@
         <v>2$AG1-S-037-3''$ID-252</v>
       </c>
     </row>
-    <row r="126" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
         <v>47</v>
       </c>
@@ -18146,7 +18146,7 @@
         <v>2$AG1-S-038-12''$ID-253</v>
       </c>
     </row>
-    <row r="127" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="6" t="s">
         <v>47</v>
       </c>
@@ -18245,7 +18245,7 @@
         <v>2$AG1-S-038-10''$ID-254</v>
       </c>
     </row>
-    <row r="128" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
         <v>47</v>
       </c>
@@ -18344,7 +18344,7 @@
         <v>2$AN1-S-012-1.1-2''$ID-255</v>
       </c>
     </row>
-    <row r="129" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="6" t="s">
         <v>47</v>
       </c>
@@ -18443,7 +18443,7 @@
         <v>2$AN1-S-013-8''$ID-256</v>
       </c>
     </row>
-    <row r="130" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
         <v>47</v>
       </c>
@@ -18542,7 +18542,7 @@
         <v>2$AN1-S-013-6''$ID-257</v>
       </c>
     </row>
-    <row r="131" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="6" t="s">
         <v>47</v>
       </c>
@@ -18647,7 +18647,7 @@
         <v>2$AN1-S-013-4''$ID-258</v>
       </c>
     </row>
-    <row r="132" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
         <v>47</v>
       </c>
@@ -18752,7 +18752,7 @@
         <v>2$AN1-S-013-3''$ID-259</v>
       </c>
     </row>
-    <row r="133" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="6" t="s">
         <v>47</v>
       </c>
@@ -18851,7 +18851,7 @@
         <v>2$AN1-S-014-32''$ID-260</v>
       </c>
     </row>
-    <row r="134" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
         <v>47</v>
       </c>
@@ -18956,7 +18956,7 @@
         <v>2$AN1-S-014-14''$ID-261</v>
       </c>
     </row>
-    <row r="135" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="6" t="s">
         <v>47</v>
       </c>
@@ -19061,7 +19061,7 @@
         <v>2$AN1-S-014-12''$ID-262</v>
       </c>
     </row>
-    <row r="136" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
         <v>47</v>
       </c>
@@ -19160,7 +19160,7 @@
         <v>2$AN1-S-014-10''$ID-263</v>
       </c>
     </row>
-    <row r="137" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="6" t="s">
         <v>47</v>
       </c>
@@ -19259,7 +19259,7 @@
         <v>2$AN1-S-021-6''$ID-264</v>
       </c>
     </row>
-    <row r="138" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
         <v>47</v>
       </c>
@@ -19358,7 +19358,7 @@
         <v>2$AN1-S-021-6''-300$ID-265</v>
       </c>
     </row>
-    <row r="139" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="6" t="s">
         <v>47</v>
       </c>
@@ -19457,7 +19457,7 @@
         <v>2$AN1-S-021-4''-200$ID-266</v>
       </c>
     </row>
-    <row r="140" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
         <v>47</v>
       </c>
@@ -19556,7 +19556,7 @@
         <v>2$AN1-S-022-12'' 500$ID-267</v>
       </c>
     </row>
-    <row r="141" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="6" t="s">
         <v>47</v>
       </c>
@@ -19655,7 +19655,7 @@
         <v>2$AN1-S-022-10'' 400$ID-268</v>
       </c>
     </row>
-    <row r="142" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
         <v>47</v>
       </c>
@@ -19754,7 +19754,7 @@
         <v>2$AP1-S-017-1.1-2'' 100$ID-269</v>
       </c>
     </row>
-    <row r="143" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="6" t="s">
         <v>47</v>
       </c>
@@ -19853,7 +19853,7 @@
         <v>2$AP1-S-018-6'' 100$ID-270</v>
       </c>
     </row>
-    <row r="144" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
         <v>47</v>
       </c>
@@ -19958,7 +19958,7 @@
         <v>2$AP1-S-018-4'' 100$ID-271</v>
       </c>
     </row>
-    <row r="145" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="6" t="s">
         <v>47</v>
       </c>
@@ -20057,7 +20057,7 @@
         <v>2$AP1-S-019-12'' 100$ID-272</v>
       </c>
     </row>
-    <row r="146" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
         <v>47</v>
       </c>
@@ -20156,7 +20156,7 @@
         <v>2$AP1-S-019-10'' 100$ID-273</v>
       </c>
     </row>
-    <row r="147" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="6" t="s">
         <v>47</v>
       </c>
@@ -20255,7 +20255,7 @@
         <v>2$FL1-S-008-32'' 750$ID-274</v>
       </c>
     </row>
-    <row r="148" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
         <v>47</v>
       </c>
@@ -20354,7 +20354,7 @@
         <v>2$FL1-S-010-3-4'' 450$ID-275</v>
       </c>
     </row>
-    <row r="149" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="6" t="s">
         <v>47</v>
       </c>
@@ -20453,7 +20453,7 @@
         <v>2$FL1-S-010-3-4'' 300$ID-276</v>
       </c>
     </row>
-    <row r="150" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
         <v>47</v>
       </c>
@@ -20552,7 +20552,7 @@
         <v>2$FL1-S-010-3-4'' 150$ID-277</v>
       </c>
     </row>
-    <row r="151" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="6" t="s">
         <v>47</v>
       </c>
@@ -20657,7 +20657,7 @@
         <v>2$FL1-S-010-2.1-2'' 300$ID-278</v>
       </c>
     </row>
-    <row r="152" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
         <v>47</v>
       </c>
@@ -20762,7 +20762,7 @@
         <v>2$FL1-S-010-2.1-2'' 250$ID-279</v>
       </c>
     </row>
-    <row r="153" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="6" t="s">
         <v>47</v>
       </c>
@@ -20867,7 +20867,7 @@
         <v>2$FL1-S-010-2.1-2'' 200$ID-280</v>
       </c>
     </row>
-    <row r="154" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
         <v>47</v>
       </c>
@@ -20972,7 +20972,7 @@
         <v>2$FL1-S-010-2.1-2'' 150$ID-281</v>
       </c>
     </row>
-    <row r="155" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="6" t="s">
         <v>47</v>
       </c>
@@ -21077,7 +21077,7 @@
         <v>2$FL1-S-010-2'' 450$ID-282</v>
       </c>
     </row>
-    <row r="156" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
         <v>47</v>
       </c>
@@ -21182,7 +21182,7 @@
         <v>2$FL1-S-010-2'' 400$ID-283</v>
       </c>
     </row>
-    <row r="157" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="6" t="s">
         <v>47</v>
       </c>
@@ -21287,7 +21287,7 @@
         <v>2$FL1-S-010-2'' 350$ID-284</v>
       </c>
     </row>
-    <row r="158" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="s">
         <v>47</v>
       </c>
@@ -21392,7 +21392,7 @@
         <v>2$FL1-S-010-2'' 300$ID-285</v>
       </c>
     </row>
-    <row r="159" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="6" t="s">
         <v>47</v>
       </c>
@@ -21497,7 +21497,7 @@
         <v>2$FL1-S-010-2'' 250$ID-286</v>
       </c>
     </row>
-    <row r="160" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="3" t="s">
         <v>47</v>
       </c>
@@ -21602,7 +21602,7 @@
         <v>2$FL1-S-010-2'' 200$ID-287</v>
       </c>
     </row>
-    <row r="161" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="6" t="s">
         <v>47</v>
       </c>
@@ -21707,7 +21707,7 @@
         <v>2$FL1-S-010-2'' 150$ID-288</v>
       </c>
     </row>
-    <row r="162" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="3" t="s">
         <v>47</v>
       </c>
@@ -21812,7 +21812,7 @@
         <v>2$FL1-S-010-2'' 100$ID-289</v>
       </c>
     </row>
-    <row r="163" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="6" t="s">
         <v>47</v>
       </c>
@@ -21911,7 +21911,7 @@
         <v>2$FL1-S-010-1-2'' 200$ID-290</v>
       </c>
     </row>
-    <row r="164" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="3" t="s">
         <v>47</v>
       </c>
@@ -22010,7 +22010,7 @@
         <v>2$FL1-S-010-1-2'' 150$ID-291</v>
       </c>
     </row>
-    <row r="165" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="6" t="s">
         <v>47</v>
       </c>
@@ -22109,7 +22109,7 @@
         <v>2$FL1-S-010-1.1-2'' 600$ID-292</v>
       </c>
     </row>
-    <row r="166" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="3" t="s">
         <v>47</v>
       </c>
@@ -22208,7 +22208,7 @@
         <v>2$FL1-S-010-1.1-2'' 300$ID-293</v>
       </c>
     </row>
-    <row r="167" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="6" t="s">
         <v>47</v>
       </c>
@@ -22307,7 +22307,7 @@
         <v>2$FL1-S-010-1.1-2'' 250$ID-294</v>
       </c>
     </row>
-    <row r="168" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="3" t="s">
         <v>47</v>
       </c>
@@ -22406,7 +22406,7 @@
         <v>2$FL1-S-010-1.1-2'' 200$ID-295</v>
       </c>
     </row>
-    <row r="169" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="6" t="s">
         <v>47</v>
       </c>
@@ -22505,7 +22505,7 @@
         <v>2$FL1-S-010-1.1-2'' 150$ID-296</v>
       </c>
     </row>
-    <row r="170" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="3" t="s">
         <v>47</v>
       </c>
@@ -22604,7 +22604,7 @@
         <v>2$FL1-S-010-1.1-2'' 100$ID-297</v>
       </c>
     </row>
-    <row r="171" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="6" t="s">
         <v>47</v>
       </c>
@@ -22703,7 +22703,7 @@
         <v>2$FL1-S-010-1'' 300$ID-298</v>
       </c>
     </row>
-    <row r="172" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="3" t="s">
         <v>47</v>
       </c>
@@ -22802,7 +22802,7 @@
         <v>2$FL1-S-010-1'' 250$ID-299</v>
       </c>
     </row>
-    <row r="173" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="6" t="s">
         <v>47</v>
       </c>
@@ -22901,7 +22901,7 @@
         <v>2$FL1-S-010-1'' 200$ID-300</v>
       </c>
     </row>
-    <row r="174" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="3" t="s">
         <v>47</v>
       </c>
@@ -23000,7 +23000,7 @@
         <v>2$FL1-S-010-1'' 150$ID-301</v>
       </c>
     </row>
-    <row r="175" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="6" t="s">
         <v>47</v>
       </c>
@@ -23099,7 +23099,7 @@
         <v>2$FL1-S-010-1'' 100$ID-302</v>
       </c>
     </row>
-    <row r="176" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="3" t="s">
         <v>47</v>
       </c>
@@ -23198,7 +23198,7 @@
         <v>2$FL1-S-011-8'' 650$ID-303</v>
       </c>
     </row>
-    <row r="177" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="6" t="s">
         <v>47</v>
       </c>
@@ -23297,7 +23297,7 @@
         <v>2$FL1-S-011-8'' 300$ID-304</v>
       </c>
     </row>
-    <row r="178" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="3" t="s">
         <v>47</v>
       </c>
@@ -23402,7 +23402,7 @@
         <v>2$FL1-S-011-6'' 350$ID-305</v>
       </c>
     </row>
-    <row r="179" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="6" t="s">
         <v>47</v>
       </c>
@@ -23507,7 +23507,7 @@
         <v>2$FL1-S-011-6'' 300$ID-306</v>
       </c>
     </row>
-    <row r="180" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="3" t="s">
         <v>47</v>
       </c>
@@ -23612,7 +23612,7 @@
         <v>2$FL1-S-011-6'' 250$ID-307</v>
       </c>
     </row>
-    <row r="181" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="6" t="s">
         <v>47</v>
       </c>
@@ -23717,7 +23717,7 @@
         <v>2$FL1-S-011-6'' 200$ID-308</v>
       </c>
     </row>
-    <row r="182" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="3" t="s">
         <v>47</v>
       </c>
@@ -23822,7 +23822,7 @@
         <v>2$FL1-S-011-4'' 800$ID-309</v>
       </c>
     </row>
-    <row r="183" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="6" t="s">
         <v>47</v>
       </c>
@@ -23927,7 +23927,7 @@
         <v>2$FL1-S-011-4'' 400$ID-310</v>
       </c>
     </row>
-    <row r="184" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="3" t="s">
         <v>47</v>
       </c>
@@ -24032,7 +24032,7 @@
         <v>2$FL1-S-011-4'' 300$ID-311</v>
       </c>
     </row>
-    <row r="185" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="6" t="s">
         <v>47</v>
       </c>
@@ -24137,7 +24137,7 @@
         <v>2$FL1-S-011-4'' 250$ID-312</v>
       </c>
     </row>
-    <row r="186" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="3" t="s">
         <v>47</v>
       </c>
@@ -24242,7 +24242,7 @@
         <v>2$FL1-S-011-4'' 200$ID-313</v>
       </c>
     </row>
-    <row r="187" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="6" t="s">
         <v>47</v>
       </c>
@@ -24341,7 +24341,7 @@
         <v>2$FL1-S-011-4'' 150$ID-314</v>
       </c>
     </row>
-    <row r="188" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="3" t="s">
         <v>47</v>
       </c>
@@ -24440,7 +24440,7 @@
         <v>2$FL1-S-011-4'' 100$ID-315</v>
       </c>
     </row>
-    <row r="189" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="6" t="s">
         <v>47</v>
       </c>
@@ -24539,7 +24539,7 @@
         <v>2$FL1-S-011-3'' 600$ID-316</v>
       </c>
     </row>
-    <row r="190" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="3" t="s">
         <v>47</v>
       </c>
@@ -24638,7 +24638,7 @@
         <v>2$FL1-S-011-3'' 450$ID-317</v>
       </c>
     </row>
-    <row r="191" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="6" t="s">
         <v>47</v>
       </c>
@@ -24743,7 +24743,7 @@
         <v>2$FL1-S-011-3'' 400$ID-318</v>
       </c>
     </row>
-    <row r="192" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="3" t="s">
         <v>47</v>
       </c>
@@ -24848,7 +24848,7 @@
         <v>2$FL1-S-011-3'' 350$ID-319</v>
       </c>
     </row>
-    <row r="193" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="6" t="s">
         <v>47</v>
       </c>
@@ -24953,7 +24953,7 @@
         <v>2$FL1-S-011-3'' 300$ID-320</v>
       </c>
     </row>
-    <row r="194" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="3" t="s">
         <v>47</v>
       </c>
@@ -25058,7 +25058,7 @@
         <v>2$FL1-S-011-3'' 250$ID-321</v>
       </c>
     </row>
-    <row r="195" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="6" t="s">
         <v>47</v>
       </c>
@@ -25157,7 +25157,7 @@
         <v>2$FL1-S-011-3'' 200$ID-322</v>
       </c>
     </row>
-    <row r="196" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="3" t="s">
         <v>47</v>
       </c>
@@ -25256,7 +25256,7 @@
         <v>2$FL1-S-011-3'' 150$ID-323</v>
       </c>
     </row>
-    <row r="197" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="6" t="s">
         <v>47</v>
       </c>
@@ -25355,7 +25355,7 @@
         <v>2$FL1-S-011-3'' 100$ID-324</v>
       </c>
     </row>
-    <row r="198" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="3" t="s">
         <v>47</v>
       </c>
@@ -25460,7 +25460,7 @@
         <v>2$FL1-S-011-14'' 350$ID-325</v>
       </c>
     </row>
-    <row r="199" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="6" t="s">
         <v>47</v>
       </c>
@@ -25565,7 +25565,7 @@
         <v>2$FL1-S-011-12'' 750$ID-326</v>
       </c>
     </row>
-    <row r="200" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="3" t="s">
         <v>47</v>
       </c>
@@ -25670,7 +25670,7 @@
         <v>2$FL1-S-011-12'' 550$ID-327</v>
       </c>
     </row>
-    <row r="201" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="6" t="s">
         <v>47</v>
       </c>
@@ -25775,7 +25775,7 @@
         <v>2$FL1-S-011-12'' 400$ID-328</v>
       </c>
     </row>
-    <row r="202" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="3" t="s">
         <v>47</v>
       </c>
@@ -25880,7 +25880,7 @@
         <v>2$FL1-S-011-12'' 100$ID-329</v>
       </c>
     </row>
-    <row r="203" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="6" t="s">
         <v>47</v>
       </c>
@@ -25985,7 +25985,7 @@
         <v>2$FL1-S-011-10'' 650$ID-330</v>
       </c>
     </row>
-    <row r="204" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="3" t="s">
         <v>47</v>
       </c>
@@ -26090,7 +26090,7 @@
         <v>2$FL1-S-011-10'' 600$ID-331</v>
       </c>
     </row>
-    <row r="205" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="6" t="s">
         <v>47</v>
       </c>
@@ -26195,7 +26195,7 @@
         <v>2$FL1-S-011-10'' 500$ID-332</v>
       </c>
     </row>
-    <row r="206" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="3" t="s">
         <v>47</v>
       </c>
@@ -26300,7 +26300,7 @@
         <v>2$FL1-S-011-10'' 400$ID-333</v>
       </c>
     </row>
-    <row r="207" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="6" t="s">
         <v>47</v>
       </c>
@@ -26405,7 +26405,7 @@
         <v>2$FL1-S-011-10'' 250$ID-334</v>
       </c>
     </row>
-    <row r="208" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="3" t="s">
         <v>47</v>
       </c>
@@ -26510,7 +26510,7 @@
         <v>2$FL1-S-012-2'' 500$ID-335</v>
       </c>
     </row>
-    <row r="209" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" s="6" t="s">
         <v>47</v>
       </c>
@@ -26615,7 +26615,7 @@
         <v>2$FL1-S-012-2'' 400$ID-336</v>
       </c>
     </row>
-    <row r="210" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="3" t="s">
         <v>47</v>
       </c>
@@ -26714,7 +26714,7 @@
         <v>2$FL1-S-012-2'' 150$ID-337</v>
       </c>
     </row>
-    <row r="211" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="6" t="s">
         <v>47</v>
       </c>
@@ -26813,7 +26813,7 @@
         <v>2$FL1-S-012-1-2'' 150$ID-338</v>
       </c>
     </row>
-    <row r="212" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="3" t="s">
         <v>47</v>
       </c>
@@ -26912,7 +26912,7 @@
         <v>2$FL1-S-012-1.1-2'' 150$ID-339</v>
       </c>
     </row>
-    <row r="213" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="6" t="s">
         <v>47</v>
       </c>
@@ -27011,7 +27011,7 @@
         <v>2$FL1-S-012-1.1-2'' 100$ID-340</v>
       </c>
     </row>
-    <row r="214" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214" s="3" t="s">
         <v>47</v>
       </c>
@@ -27110,7 +27110,7 @@
         <v>2$FL1-S-012 1'' 200$ID-341</v>
       </c>
     </row>
-    <row r="215" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="6" t="s">
         <v>47</v>
       </c>
@@ -27215,7 +27215,7 @@
         <v>2$FL1-S-013 6'' 450$ID-342</v>
       </c>
     </row>
-    <row r="216" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="3" t="s">
         <v>47</v>
       </c>
@@ -27320,7 +27320,7 @@
         <v>2$FL1-S-013 6'' 400$ID-343</v>
       </c>
     </row>
-    <row r="217" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="6" t="s">
         <v>47</v>
       </c>
@@ -27425,7 +27425,7 @@
         <v>2$FL1-S-013 6'' 350$ID-344</v>
       </c>
     </row>
-    <row r="218" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="3" t="s">
         <v>47</v>
       </c>
@@ -27530,7 +27530,7 @@
         <v>2$FFL1-S-013 4'' 350$ID-345</v>
       </c>
     </row>
-    <row r="219" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="6" t="s">
         <v>47</v>
       </c>
@@ -27629,7 +27629,7 @@
         <v>2$FL1-S-013-4'' 350$ID-346</v>
       </c>
     </row>
-    <row r="220" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="3" t="s">
         <v>47</v>
       </c>
@@ -27728,7 +27728,7 @@
         <v>2$FL1-S-013-4'' 300$ID-347</v>
       </c>
     </row>
-    <row r="221" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="6" t="s">
         <v>47</v>
       </c>
@@ -27827,7 +27827,7 @@
         <v>2$FL1-S-013-4'' 200$ID-348</v>
       </c>
     </row>
-    <row r="222" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="3" t="s">
         <v>47</v>
       </c>
@@ -27926,7 +27926,7 @@
         <v>2$FL1-S-015-1'' 200$ID-349</v>
       </c>
     </row>
-    <row r="223" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="6" t="s">
         <v>47</v>
       </c>
@@ -28031,7 +28031,7 @@
         <v>2$SPFF-2898$ID-1</v>
       </c>
     </row>
-    <row r="224" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="3" t="s">
         <v>47</v>
       </c>
@@ -28136,7 +28136,7 @@
         <v>2$SPFF-2946$ID-2</v>
       </c>
     </row>
-    <row r="225" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" s="6" t="s">
         <v>47</v>
       </c>
@@ -28241,7 +28241,7 @@
         <v>2$SPFF-2958$ID-3</v>
       </c>
     </row>
-    <row r="226" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226" s="3" t="s">
         <v>47</v>
       </c>
@@ -28346,7 +28346,7 @@
         <v>2$SPFF-2959$ID-4</v>
       </c>
     </row>
-    <row r="227" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="6" t="s">
         <v>47</v>
       </c>
@@ -28451,7 +28451,7 @@
         <v>2$SPFF-2960$ID-5</v>
       </c>
     </row>
-    <row r="228" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="3" t="s">
         <v>47</v>
       </c>
@@ -28556,7 +28556,7 @@
         <v>2$SPFF-2963$ID-6</v>
       </c>
     </row>
-    <row r="229" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229" s="6" t="s">
         <v>47</v>
       </c>
@@ -28661,7 +28661,7 @@
         <v>2$SPFF-2964$ID-7</v>
       </c>
     </row>
-    <row r="230" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230" s="3" t="s">
         <v>47</v>
       </c>
@@ -28766,7 +28766,7 @@
         <v>2$SPFF-2965$ID-8</v>
       </c>
     </row>
-    <row r="231" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231" s="6" t="s">
         <v>47</v>
       </c>
@@ -28871,7 +28871,7 @@
         <v>2$SPFF-2966$ID-9</v>
       </c>
     </row>
-    <row r="232" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A232" s="3" t="s">
         <v>47</v>
       </c>
@@ -28976,7 +28976,7 @@
         <v>2$SPFF-2967$ID-10</v>
       </c>
     </row>
-    <row r="233" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A233" s="6" t="s">
         <v>47</v>
       </c>
@@ -29081,7 +29081,7 @@
         <v>2$SPFF-2968$ID-11</v>
       </c>
     </row>
-    <row r="234" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234" s="3" t="s">
         <v>47</v>
       </c>
@@ -29186,7 +29186,7 @@
         <v>2$SPFF-2993$ID-12</v>
       </c>
     </row>
-    <row r="235" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235" s="6" t="s">
         <v>47</v>
       </c>
@@ -29291,7 +29291,7 @@
         <v>2$SPFF-2995$ID-13</v>
       </c>
     </row>
-    <row r="236" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" s="3" t="s">
         <v>47</v>
       </c>
@@ -29396,7 +29396,7 @@
         <v>2$SPFF-2996$ID-14</v>
       </c>
     </row>
-    <row r="237" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237" s="6" t="s">
         <v>47</v>
       </c>
@@ -29501,7 +29501,7 @@
         <v>2$SPFF-2997$ID-15</v>
       </c>
     </row>
-    <row r="238" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238" s="3" t="s">
         <v>47</v>
       </c>
@@ -29606,7 +29606,7 @@
         <v>2$SPFF-2998$ID-16</v>
       </c>
     </row>
-    <row r="239" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239" s="6" t="s">
         <v>47</v>
       </c>
@@ -29711,7 +29711,7 @@
         <v>2$SPFF-2999$ID-17</v>
       </c>
     </row>
-    <row r="240" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="3" t="s">
         <v>47</v>
       </c>
@@ -29816,7 +29816,7 @@
         <v>2$SPFF-3000$ID-18</v>
       </c>
     </row>
-    <row r="241" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241" s="6" t="s">
         <v>47</v>
       </c>
@@ -29921,7 +29921,7 @@
         <v>2$SPFF-3001$ID-19</v>
       </c>
     </row>
-    <row r="242" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A242" s="3" t="s">
         <v>47</v>
       </c>
@@ -30026,7 +30026,7 @@
         <v>2$SPFF-3002$ID-20</v>
       </c>
     </row>
-    <row r="243" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" s="6" t="s">
         <v>47</v>
       </c>
@@ -30131,7 +30131,7 @@
         <v>2$SPFF-3003$ID-21</v>
       </c>
     </row>
-    <row r="244" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="3" t="s">
         <v>47</v>
       </c>
@@ -30236,7 +30236,7 @@
         <v>2$SPFF-3007$ID-22</v>
       </c>
     </row>
-    <row r="245" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245" s="6" t="s">
         <v>47</v>
       </c>
@@ -30341,7 +30341,7 @@
         <v>2$SPFF-3008$ID-23</v>
       </c>
     </row>
-    <row r="246" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A246" s="3" t="s">
         <v>47</v>
       </c>
@@ -30446,7 +30446,7 @@
         <v>2$SPFF-3009$ID-24</v>
       </c>
     </row>
-    <row r="247" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A247" s="6" t="s">
         <v>47</v>
       </c>
@@ -30551,7 +30551,7 @@
         <v>2$SPFF-3010$ID-25</v>
       </c>
     </row>
-    <row r="248" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A248" s="3" t="s">
         <v>47</v>
       </c>
@@ -30656,7 +30656,7 @@
         <v>2$SPPR-2445$ID-26</v>
       </c>
     </row>
-    <row r="249" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249" s="6" t="s">
         <v>47</v>
       </c>
@@ -30761,7 +30761,7 @@
         <v>2$SPPR-2602$ID-27</v>
       </c>
     </row>
-    <row r="250" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A250" s="3" t="s">
         <v>47</v>
       </c>
@@ -30866,7 +30866,7 @@
         <v>2$SPPR-2603$ID-28</v>
       </c>
     </row>
-    <row r="251" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A251" s="6" t="s">
         <v>47</v>
       </c>
@@ -30971,7 +30971,7 @@
         <v>2$SPPR-2392$ID-29</v>
       </c>
     </row>
-    <row r="252" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A252" s="3" t="s">
         <v>47</v>
       </c>
@@ -31076,7 +31076,7 @@
         <v>2$SPPR-2393$ID-30</v>
       </c>
     </row>
-    <row r="253" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A253" s="6" t="s">
         <v>47</v>
       </c>
@@ -31181,7 +31181,7 @@
         <v>2$SPPR-2394$ID-31</v>
       </c>
     </row>
-    <row r="254" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A254" s="3" t="s">
         <v>47</v>
       </c>
@@ -31280,7 +31280,7 @@
         <v>2$SPPR-2395$ID-32</v>
       </c>
     </row>
-    <row r="255" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A255" s="6" t="s">
         <v>47</v>
       </c>
@@ -31385,7 +31385,7 @@
         <v>2$SPPR-2396$ID-33</v>
       </c>
     </row>
-    <row r="256" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A256" s="3" t="s">
         <v>47</v>
       </c>
@@ -31490,7 +31490,7 @@
         <v>2$SPPR-2399$ID-34</v>
       </c>
     </row>
-    <row r="257" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A257" s="6" t="s">
         <v>47</v>
       </c>
@@ -31595,7 +31595,7 @@
         <v>2$SPPR-2400$ID-35</v>
       </c>
     </row>
-    <row r="258" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A258" s="3" t="s">
         <v>47</v>
       </c>
@@ -31700,7 +31700,7 @@
         <v>2$SPPR-2401$ID-36</v>
       </c>
     </row>
-    <row r="259" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A259" s="6" t="s">
         <v>47</v>
       </c>
@@ -31805,7 +31805,7 @@
         <v>2$SPPR-2402$ID-37</v>
       </c>
     </row>
-    <row r="260" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A260" s="3" t="s">
         <v>47</v>
       </c>
@@ -31910,7 +31910,7 @@
         <v>2$SPPR-2591$ID-38</v>
       </c>
     </row>
-    <row r="261" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A261" s="6" t="s">
         <v>47</v>
       </c>
@@ -32015,7 +32015,7 @@
         <v>2$SPPR-2749$ID-39</v>
       </c>
     </row>
-    <row r="262" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A262" s="3" t="s">
         <v>47</v>
       </c>
@@ -32120,7 +32120,7 @@
         <v>2$SPPR-2750$ID-40</v>
       </c>
     </row>
-    <row r="263" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A263" s="6" t="s">
         <v>47</v>
       </c>
@@ -32225,7 +32225,7 @@
         <v>2$SPPR-2687$ID-41</v>
       </c>
     </row>
-    <row r="264" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A264" s="3" t="s">
         <v>47</v>
       </c>
@@ -32330,7 +32330,7 @@
         <v>2$SPFF-2809$ID-42</v>
       </c>
     </row>
-    <row r="265" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A265" s="6" t="s">
         <v>47</v>
       </c>
@@ -32435,7 +32435,7 @@
         <v>2$SPPR-2746$ID-43</v>
       </c>
     </row>
-    <row r="266" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A266" s="3" t="s">
         <v>47</v>
       </c>
@@ -32540,7 +32540,7 @@
         <v>2$SPPR-2686$ID-44</v>
       </c>
     </row>
-    <row r="267" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A267" s="6" t="s">
         <v>47</v>
       </c>
@@ -32645,7 +32645,7 @@
         <v>2$SPPR-2747$ID-45</v>
       </c>
     </row>
-    <row r="268" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A268" s="3" t="s">
         <v>47</v>
       </c>
@@ -32750,7 +32750,7 @@
         <v>2$SPFF-2805$ID-46</v>
       </c>
     </row>
-    <row r="269" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A269" s="6" t="s">
         <v>47</v>
       </c>
@@ -32855,7 +32855,7 @@
         <v>2$SPFF-2806$ID-47</v>
       </c>
     </row>
-    <row r="270" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A270" s="3" t="s">
         <v>47</v>
       </c>
@@ -32960,7 +32960,7 @@
         <v>2$SPFF-2807$ID-48</v>
       </c>
     </row>
-    <row r="271" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A271" s="6" t="s">
         <v>47</v>
       </c>
@@ -33065,7 +33065,7 @@
         <v>2$SPFF-2865$ID-49</v>
       </c>
     </row>
-    <row r="272" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A272" s="3" t="s">
         <v>47</v>
       </c>
@@ -33170,7 +33170,7 @@
         <v>2$SPFF-2868$ID-50</v>
       </c>
     </row>
-    <row r="273" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A273" s="6" t="s">
         <v>47</v>
       </c>
@@ -33275,7 +33275,7 @@
         <v>2$SPFF-2869$ID-51</v>
       </c>
     </row>
-    <row r="274" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A274" s="3" t="s">
         <v>47</v>
       </c>
@@ -33380,7 +33380,7 @@
         <v>2$SPFF-2870$ID-52</v>
       </c>
     </row>
-    <row r="275" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A275" s="6" t="s">
         <v>47</v>
       </c>
@@ -33485,7 +33485,7 @@
         <v>2$SPFF-2873$ID-53</v>
       </c>
     </row>
-    <row r="276" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A276" s="3" t="s">
         <v>47</v>
       </c>
@@ -33590,7 +33590,7 @@
         <v>2$SPFF-2874$ID-54</v>
       </c>
     </row>
-    <row r="277" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A277" s="6" t="s">
         <v>47</v>
       </c>
@@ -33695,7 +33695,7 @@
         <v>2$SPFF-2885$ID-55</v>
       </c>
     </row>
-    <row r="278" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A278" s="3" t="s">
         <v>47</v>
       </c>
@@ -33800,7 +33800,7 @@
         <v>2$SPFF-2887$ID-56</v>
       </c>
     </row>
-    <row r="279" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A279" s="6" t="s">
         <v>47</v>
       </c>
@@ -33905,7 +33905,7 @@
         <v>2$SPFF-2890$ID-57</v>
       </c>
     </row>
-    <row r="280" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A280" s="3" t="s">
         <v>47</v>
       </c>
@@ -34010,7 +34010,7 @@
         <v>2$SPFF-2891$ID-58</v>
       </c>
     </row>
-    <row r="281" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A281" s="6" t="s">
         <v>47</v>
       </c>
@@ -34115,7 +34115,7 @@
         <v>2$SPFF-2915$ID-59</v>
       </c>
     </row>
-    <row r="282" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A282" s="3" t="s">
         <v>47</v>
       </c>
@@ -34220,7 +34220,7 @@
         <v>2$SPFF-2916$ID-60</v>
       </c>
     </row>
-    <row r="283" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A283" s="6" t="s">
         <v>47</v>
       </c>
@@ -34325,7 +34325,7 @@
         <v>2$SPFF-2919$ID-61</v>
       </c>
     </row>
-    <row r="284" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A284" s="3" t="s">
         <v>47</v>
       </c>
@@ -34430,7 +34430,7 @@
         <v>2$SPFF-2922$ID-62</v>
       </c>
     </row>
-    <row r="285" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A285" s="6" t="s">
         <v>47</v>
       </c>
@@ -34535,7 +34535,7 @@
         <v>2$SPFF-2923$ID-63</v>
       </c>
     </row>
-    <row r="286" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A286" s="3" t="s">
         <v>47</v>
       </c>
@@ -34640,7 +34640,7 @@
         <v>2$SPFF-2927$ID-64</v>
       </c>
     </row>
-    <row r="287" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A287" s="6" t="s">
         <v>47</v>
       </c>
@@ -34745,7 +34745,7 @@
         <v>2$SPFF-2938$ID-65</v>
       </c>
     </row>
-    <row r="288" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A288" s="3" t="s">
         <v>47</v>
       </c>
@@ -34850,7 +34850,7 @@
         <v>2$SPFF-2939$ID-66</v>
       </c>
     </row>
-    <row r="289" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A289" s="6" t="s">
         <v>47</v>
       </c>
@@ -34955,7 +34955,7 @@
         <v>2$SPFF-2940$ID-67</v>
       </c>
     </row>
-    <row r="290" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A290" s="3" t="s">
         <v>47</v>
       </c>
@@ -35060,7 +35060,7 @@
         <v>2$SPFF-2977$ID-68</v>
       </c>
     </row>
-    <row r="291" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A291" s="6" t="s">
         <v>47</v>
       </c>
@@ -35165,7 +35165,7 @@
         <v>2$SPFF-2981$ID-69</v>
       </c>
     </row>
-    <row r="292" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A292" s="3" t="s">
         <v>47</v>
       </c>
@@ -35270,7 +35270,7 @@
         <v>2$SPFF-2988$ID-70</v>
       </c>
     </row>
-    <row r="293" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A293" s="6" t="s">
         <v>47</v>
       </c>
@@ -35375,7 +35375,7 @@
         <v>2$SPFF-2994$ID-71</v>
       </c>
     </row>
-    <row r="294" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A294" s="3" t="s">
         <v>47</v>
       </c>
@@ -35480,7 +35480,7 @@
         <v>2$SPFF-3013$ID-72</v>
       </c>
     </row>
-    <row r="295" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A295" s="6" t="s">
         <v>47</v>
       </c>
@@ -35585,7 +35585,7 @@
         <v>2$SPFF-3014$ID-73</v>
       </c>
     </row>
-    <row r="296" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A296" s="3" t="s">
         <v>47</v>
       </c>
@@ -35690,7 +35690,7 @@
         <v>2$SPFF-3015$ID-74</v>
       </c>
     </row>
-    <row r="297" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A297" s="6" t="s">
         <v>47</v>
       </c>
@@ -35795,7 +35795,7 @@
         <v>2$SPFF-3018$ID-75</v>
       </c>
     </row>
-    <row r="298" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A298" s="3" t="s">
         <v>47</v>
       </c>
@@ -35900,7 +35900,7 @@
         <v>2$SPFF-3019$ID-76</v>
       </c>
     </row>
-    <row r="299" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A299" s="6" t="s">
         <v>47</v>
       </c>
@@ -36005,7 +36005,7 @@
         <v>2$SPFF-3034$ID-77</v>
       </c>
     </row>
-    <row r="300" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A300" s="3" t="s">
         <v>47</v>
       </c>
@@ -36110,7 +36110,7 @@
         <v>2$SPFF-3041$ID-78</v>
       </c>
     </row>
-    <row r="301" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A301" s="6" t="s">
         <v>47</v>
       </c>
@@ -36215,7 +36215,7 @@
         <v>2$SPFF-3042$ID-79</v>
       </c>
     </row>
-    <row r="302" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A302" s="3" t="s">
         <v>47</v>
       </c>
@@ -36320,7 +36320,7 @@
         <v>2$SPFF-3043$ID-80</v>
       </c>
     </row>
-    <row r="303" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A303" s="6" t="s">
         <v>47</v>
       </c>
@@ -36425,7 +36425,7 @@
         <v>2$SPFF-3049$ID-81</v>
       </c>
     </row>
-    <row r="304" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A304" s="3" t="s">
         <v>47</v>
       </c>
@@ -36530,7 +36530,7 @@
         <v>2$SPFF-3050$ID-82</v>
       </c>
     </row>
-    <row r="305" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A305" s="6" t="s">
         <v>47</v>
       </c>
@@ -36635,7 +36635,7 @@
         <v>2$SPFF-3072$ID-83</v>
       </c>
     </row>
-    <row r="306" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A306" s="3" t="s">
         <v>47</v>
       </c>
@@ -36740,7 +36740,7 @@
         <v>2$SPFF-3077$ID-84</v>
       </c>
     </row>
-    <row r="307" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A307" s="6" t="s">
         <v>47</v>
       </c>
@@ -36845,7 +36845,7 @@
         <v>2$SPFF-3078$ID-85</v>
       </c>
     </row>
-    <row r="308" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A308" s="3" t="s">
         <v>47</v>
       </c>
@@ -36950,7 +36950,7 @@
         <v>2$SPFF-3086$ID-86</v>
       </c>
     </row>
-    <row r="309" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A309" s="6" t="s">
         <v>47</v>
       </c>
@@ -37055,7 +37055,7 @@
         <v>2$SPFF-3087$ID-87</v>
       </c>
     </row>
-    <row r="310" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A310" s="3" t="s">
         <v>47</v>
       </c>
@@ -37160,7 +37160,7 @@
         <v>2$SPFF-3088$ID-88</v>
       </c>
     </row>
-    <row r="311" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A311" s="6" t="s">
         <v>47</v>
       </c>
@@ -37265,7 +37265,7 @@
         <v>2$SPFF-3113$ID-89</v>
       </c>
     </row>
-    <row r="312" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A312" s="3" t="s">
         <v>47</v>
       </c>
@@ -37370,7 +37370,7 @@
         <v>2$SPFF-3114$ID-90</v>
       </c>
     </row>
-    <row r="313" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A313" s="6" t="s">
         <v>47</v>
       </c>
@@ -37475,7 +37475,7 @@
         <v>2$SPPR-2390$ID-91</v>
       </c>
     </row>
-    <row r="314" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A314" s="3" t="s">
         <v>47</v>
       </c>
@@ -37580,7 +37580,7 @@
         <v>2$SPPR-2391$ID-92</v>
       </c>
     </row>
-    <row r="315" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A315" s="6" t="s">
         <v>47</v>
       </c>
@@ -37685,7 +37685,7 @@
         <v>2$SPPR-2404$ID-93</v>
       </c>
     </row>
-    <row r="316" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A316" s="3" t="s">
         <v>47</v>
       </c>
@@ -37790,7 +37790,7 @@
         <v>2$SPPR-2427$ID-94</v>
       </c>
     </row>
-    <row r="317" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A317" s="6" t="s">
         <v>47</v>
       </c>
@@ -37895,7 +37895,7 @@
         <v>2$SPPR-2436$ID-95</v>
       </c>
     </row>
-    <row r="318" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A318" s="3" t="s">
         <v>47</v>
       </c>
@@ -38000,7 +38000,7 @@
         <v>2$SPPR-2455$ID-96</v>
       </c>
     </row>
-    <row r="319" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A319" s="6" t="s">
         <v>47</v>
       </c>
@@ -38105,7 +38105,7 @@
         <v>2$SPPR-2466$ID-97</v>
       </c>
     </row>
-    <row r="320" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A320" s="3" t="s">
         <v>47</v>
       </c>
@@ -38210,7 +38210,7 @@
         <v>2$SPPR-2467$ID-98</v>
       </c>
     </row>
-    <row r="321" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A321" s="6" t="s">
         <v>47</v>
       </c>
@@ -38315,7 +38315,7 @@
         <v>2$SPPR-2474$ID-99</v>
       </c>
     </row>
-    <row r="322" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A322" s="3" t="s">
         <v>47</v>
       </c>
@@ -38420,7 +38420,7 @@
         <v>2$SPPR-2481$ID-100</v>
       </c>
     </row>
-    <row r="323" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A323" s="6" t="s">
         <v>47</v>
       </c>
@@ -38525,7 +38525,7 @@
         <v>2$SPPR-2487$ID-101</v>
       </c>
     </row>
-    <row r="324" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A324" s="3" t="s">
         <v>47</v>
       </c>
@@ -38630,7 +38630,7 @@
         <v>2$SPPR-2506$ID-102</v>
       </c>
     </row>
-    <row r="325" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A325" s="6" t="s">
         <v>47</v>
       </c>
@@ -38735,7 +38735,7 @@
         <v>2$SPPR-2509$ID-103</v>
       </c>
     </row>
-    <row r="326" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A326" s="3" t="s">
         <v>47</v>
       </c>
@@ -38840,7 +38840,7 @@
         <v>2$SPPR-2510$ID-104</v>
       </c>
     </row>
-    <row r="327" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A327" s="6" t="s">
         <v>47</v>
       </c>
@@ -38945,7 +38945,7 @@
         <v>2$SPPR-2511$ID-105</v>
       </c>
     </row>
-    <row r="328" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A328" s="3" t="s">
         <v>47</v>
       </c>
@@ -39050,7 +39050,7 @@
         <v>2$SPPR-2512$ID-106</v>
       </c>
     </row>
-    <row r="329" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A329" s="6" t="s">
         <v>47</v>
       </c>
@@ -39155,7 +39155,7 @@
         <v>2$SPPR-2513$ID-107</v>
       </c>
     </row>
-    <row r="330" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A330" s="3" t="s">
         <v>47</v>
       </c>
@@ -39260,7 +39260,7 @@
         <v>2$SPPR-2514$ID-108</v>
       </c>
     </row>
-    <row r="331" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A331" s="6" t="s">
         <v>47</v>
       </c>
@@ -39365,7 +39365,7 @@
         <v>2$SPPR-2515$ID-109</v>
       </c>
     </row>
-    <row r="332" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A332" s="3" t="s">
         <v>47</v>
       </c>
@@ -39470,7 +39470,7 @@
         <v>2$SPPR-2516$ID-110</v>
       </c>
     </row>
-    <row r="333" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A333" s="6" t="s">
         <v>47</v>
       </c>
@@ -39575,7 +39575,7 @@
         <v>2$SPPR-2520$ID-111</v>
       </c>
     </row>
-    <row r="334" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A334" s="3" t="s">
         <v>47</v>
       </c>
@@ -39680,7 +39680,7 @@
         <v>2$SPPR-2521$ID-112</v>
       </c>
     </row>
-    <row r="335" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A335" s="6" t="s">
         <v>47</v>
       </c>
@@ -39785,7 +39785,7 @@
         <v>2$SPPR-2522$ID-113</v>
       </c>
     </row>
-    <row r="336" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A336" s="3" t="s">
         <v>47</v>
       </c>
@@ -39890,7 +39890,7 @@
         <v>2$SPPR-2523$ID-114</v>
       </c>
     </row>
-    <row r="337" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A337" s="6" t="s">
         <v>47</v>
       </c>
@@ -39995,7 +39995,7 @@
         <v>2$SPPR-2524$ID-115</v>
       </c>
     </row>
-    <row r="338" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A338" s="3" t="s">
         <v>47</v>
       </c>
@@ -40100,7 +40100,7 @@
         <v>2$SPPR-2525$ID-116</v>
       </c>
     </row>
-    <row r="339" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A339" s="6" t="s">
         <v>47</v>
       </c>
@@ -40205,7 +40205,7 @@
         <v>2$SPPR-2526$ID-117</v>
       </c>
     </row>
-    <row r="340" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A340" s="3" t="s">
         <v>47</v>
       </c>
@@ -40310,7 +40310,7 @@
         <v>2$SPPR-2527$ID-118</v>
       </c>
     </row>
-    <row r="341" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A341" s="6" t="s">
         <v>47</v>
       </c>
@@ -40415,7 +40415,7 @@
         <v>2$SPPR-2528$ID-119</v>
       </c>
     </row>
-    <row r="342" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A342" s="3" t="s">
         <v>47</v>
       </c>
@@ -40520,7 +40520,7 @@
         <v>2$SPPR-2529$ID-120</v>
       </c>
     </row>
-    <row r="343" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A343" s="6" t="s">
         <v>47</v>
       </c>
@@ -40625,7 +40625,7 @@
         <v>2$SPPR-2530$ID-121</v>
       </c>
     </row>
-    <row r="344" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A344" s="3" t="s">
         <v>47</v>
       </c>
@@ -40730,7 +40730,7 @@
         <v>2$SPPR-2538$ID-122</v>
       </c>
     </row>
-    <row r="345" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A345" s="6" t="s">
         <v>47</v>
       </c>
@@ -40835,7 +40835,7 @@
         <v>2$SPPR-2541$ID-123</v>
       </c>
     </row>
-    <row r="346" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A346" s="3" t="s">
         <v>47</v>
       </c>
@@ -40940,7 +40940,7 @@
         <v>2$SPPR-2542$ID-124</v>
       </c>
     </row>
-    <row r="347" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A347" s="6" t="s">
         <v>47</v>
       </c>
@@ -41045,7 +41045,7 @@
         <v>2$SPPR-2543$ID-125</v>
       </c>
     </row>
-    <row r="348" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A348" s="3" t="s">
         <v>47</v>
       </c>
@@ -41150,7 +41150,7 @@
         <v>2$SPPR-2544$ID-126</v>
       </c>
     </row>
-    <row r="349" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A349" s="6" t="s">
         <v>47</v>
       </c>
@@ -41255,7 +41255,7 @@
         <v>2$SPPR-2547$ID-127</v>
       </c>
     </row>
-    <row r="350" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A350" s="3" t="s">
         <v>47</v>
       </c>
@@ -41360,7 +41360,7 @@
         <v>2$SPPR-2551$ID-128</v>
       </c>
     </row>
-    <row r="351" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A351" s="6" t="s">
         <v>47</v>
       </c>
@@ -41465,7 +41465,7 @@
         <v>2$SPPR-2558$ID-129</v>
       </c>
     </row>
-    <row r="352" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A352" s="3" t="s">
         <v>47</v>
       </c>
@@ -41570,7 +41570,7 @@
         <v>2$SPPR-2561$ID-130</v>
       </c>
     </row>
-    <row r="353" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A353" s="6" t="s">
         <v>47</v>
       </c>
@@ -41675,7 +41675,7 @@
         <v>2$SPPR-2562$ID-131</v>
       </c>
     </row>
-    <row r="354" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A354" s="3" t="s">
         <v>47</v>
       </c>
@@ -41780,7 +41780,7 @@
         <v>2$SPPR-2564$ID-132</v>
       </c>
     </row>
-    <row r="355" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A355" s="6" t="s">
         <v>47</v>
       </c>
@@ -41885,7 +41885,7 @@
         <v>2$SPPR-2565$ID-133</v>
       </c>
     </row>
-    <row r="356" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A356" s="3" t="s">
         <v>47</v>
       </c>
@@ -41990,7 +41990,7 @@
         <v>2$SPPR-2566$ID-134</v>
       </c>
     </row>
-    <row r="357" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A357" s="6" t="s">
         <v>47</v>
       </c>
@@ -42095,7 +42095,7 @@
         <v>2$SPPR-2577$ID-135</v>
       </c>
     </row>
-    <row r="358" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A358" s="3" t="s">
         <v>47</v>
       </c>
@@ -42200,7 +42200,7 @@
         <v>2$SPPR-2578$ID-136</v>
       </c>
     </row>
-    <row r="359" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A359" s="6" t="s">
         <v>47</v>
       </c>
@@ -42305,7 +42305,7 @@
         <v>2$SPPR-2583$ID-137</v>
       </c>
     </row>
-    <row r="360" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A360" s="3" t="s">
         <v>47</v>
       </c>
@@ -42410,7 +42410,7 @@
         <v>2$SPPR-2584$ID-138</v>
       </c>
     </row>
-    <row r="361" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A361" s="6" t="s">
         <v>47</v>
       </c>
@@ -42515,7 +42515,7 @@
         <v>2$SPPR-2585$ID-139</v>
       </c>
     </row>
-    <row r="362" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A362" s="3" t="s">
         <v>47</v>
       </c>
@@ -42620,7 +42620,7 @@
         <v>2$SPPR-2589$ID-140</v>
       </c>
     </row>
-    <row r="363" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A363" s="6" t="s">
         <v>47</v>
       </c>
@@ -42725,7 +42725,7 @@
         <v>2$SPPR-2600$ID-141</v>
       </c>
     </row>
-    <row r="364" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A364" s="3" t="s">
         <v>47</v>
       </c>
@@ -42830,7 +42830,7 @@
         <v>2$SPPR-2604$ID-142</v>
       </c>
     </row>
-    <row r="365" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A365" s="6" t="s">
         <v>47</v>
       </c>
@@ -42935,7 +42935,7 @@
         <v>2$SPPR-2605$ID-143</v>
       </c>
     </row>
-    <row r="366" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A366" s="3" t="s">
         <v>47</v>
       </c>
@@ -43040,7 +43040,7 @@
         <v>2$SPPR-2606$ID-144</v>
       </c>
     </row>
-    <row r="367" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A367" s="6" t="s">
         <v>47</v>
       </c>
@@ -43145,7 +43145,7 @@
         <v>2$SPPR-2609$ID-145</v>
       </c>
     </row>
-    <row r="368" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A368" s="3" t="s">
         <v>47</v>
       </c>
@@ -43250,7 +43250,7 @@
         <v>2$SPPR-2626$ID-146</v>
       </c>
     </row>
-    <row r="369" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A369" s="6" t="s">
         <v>47</v>
       </c>
@@ -43355,7 +43355,7 @@
         <v>2$SPPR-2627$ID-147</v>
       </c>
     </row>
-    <row r="370" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A370" s="3" t="s">
         <v>47</v>
       </c>
@@ -43460,7 +43460,7 @@
         <v>2$SPPR-2628$ID-148</v>
       </c>
     </row>
-    <row r="371" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A371" s="6" t="s">
         <v>47</v>
       </c>
@@ -43565,7 +43565,7 @@
         <v>2$SPPR-2629$ID-149</v>
       </c>
     </row>
-    <row r="372" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A372" s="3" t="s">
         <v>47</v>
       </c>
@@ -43664,7 +43664,7 @@
         <v>2$SPPR-2631$ID-150</v>
       </c>
     </row>
-    <row r="373" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A373" s="6" t="s">
         <v>47</v>
       </c>
@@ -43769,7 +43769,7 @@
         <v>2$SPPR-2632$ID-151</v>
       </c>
     </row>
-    <row r="374" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A374" s="3" t="s">
         <v>47</v>
       </c>
@@ -43874,7 +43874,7 @@
         <v>2$SPPR-2634$ID-152</v>
       </c>
     </row>
-    <row r="375" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A375" s="6" t="s">
         <v>47</v>
       </c>
@@ -43979,7 +43979,7 @@
         <v>2$SPPR-2635$ID-153</v>
       </c>
     </row>
-    <row r="376" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A376" s="3" t="s">
         <v>47</v>
       </c>
@@ -44084,7 +44084,7 @@
         <v>2$SPPR-2647$ID-154</v>
       </c>
     </row>
-    <row r="377" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A377" s="6" t="s">
         <v>47</v>
       </c>
@@ -44189,7 +44189,7 @@
         <v>2$SPPR-2655$ID-155</v>
       </c>
     </row>
-    <row r="378" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A378" s="3" t="s">
         <v>47</v>
       </c>
@@ -44294,7 +44294,7 @@
         <v>2$SPPR-2657$ID-156</v>
       </c>
     </row>
-    <row r="379" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A379" s="6" t="s">
         <v>47</v>
       </c>
@@ -44399,7 +44399,7 @@
         <v>2$SPPR-2659$ID-157</v>
       </c>
     </row>
-    <row r="380" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A380" s="3" t="s">
         <v>47</v>
       </c>
@@ -44504,7 +44504,7 @@
         <v>2$SPPR-2660$ID-158</v>
       </c>
     </row>
-    <row r="381" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A381" s="6" t="s">
         <v>47</v>
       </c>
@@ -44609,7 +44609,7 @@
         <v>2$SPPR-2661$ID-159</v>
       </c>
     </row>
-    <row r="382" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A382" s="3" t="s">
         <v>47</v>
       </c>
@@ -44714,7 +44714,7 @@
         <v>2$SPPR-2665$ID-160</v>
       </c>
     </row>
-    <row r="383" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A383" s="6" t="s">
         <v>47</v>
       </c>
@@ -44819,7 +44819,7 @@
         <v>2$SPPR-2678$ID-161</v>
       </c>
     </row>
-    <row r="384" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A384" s="3" t="s">
         <v>47</v>
       </c>
@@ -44924,7 +44924,7 @@
         <v>2$SPPR-2685$ID-162</v>
       </c>
     </row>
-    <row r="385" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A385" s="6" t="s">
         <v>47</v>
       </c>
@@ -45029,7 +45029,7 @@
         <v>2$SPPR-2696$ID-163</v>
       </c>
     </row>
-    <row r="386" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A386" s="3" t="s">
         <v>47</v>
       </c>
@@ -45134,7 +45134,7 @@
         <v>2$SPPR-2697$ID-164</v>
       </c>
     </row>
-    <row r="387" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A387" s="6" t="s">
         <v>47</v>
       </c>
@@ -45239,7 +45239,7 @@
         <v>2$SPPR-2702$ID-165</v>
       </c>
     </row>
-    <row r="388" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A388" s="3" t="s">
         <v>47</v>
       </c>
@@ -45338,7 +45338,7 @@
         <v>2$SPPR-2705$ID-166</v>
       </c>
     </row>
-    <row r="389" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A389" s="6" t="s">
         <v>47</v>
       </c>
@@ -45443,7 +45443,7 @@
         <v>2$SPPR-2706$ID-167</v>
       </c>
     </row>
-    <row r="390" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A390" s="3" t="s">
         <v>47</v>
       </c>
@@ -45542,7 +45542,7 @@
         <v>2$SPPR-2730$ID-168</v>
       </c>
     </row>
-    <row r="391" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A391" s="6" t="s">
         <v>47</v>
       </c>
@@ -45647,7 +45647,7 @@
         <v>2$SPPR-2734$ID-169</v>
       </c>
     </row>
-    <row r="392" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A392" s="3" t="s">
         <v>47</v>
       </c>
@@ -45752,7 +45752,7 @@
         <v>2$SPPR-2745$ID-170</v>
       </c>
     </row>
-    <row r="393" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A393" s="6" t="s">
         <v>47</v>
       </c>
@@ -45857,7 +45857,7 @@
         <v>2$SPPR-2777$ID-171</v>
       </c>
     </row>
-    <row r="394" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A394" s="3" t="s">
         <v>47</v>
       </c>
@@ -45962,7 +45962,7 @@
         <v>2$SPPR-2781$ID-172</v>
       </c>
     </row>
-    <row r="395" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A395" s="6" t="s">
         <v>47</v>
       </c>
@@ -46067,7 +46067,7 @@
         <v>2$SPPR-2782$ID-173</v>
       </c>
     </row>
-    <row r="396" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A396" s="3" t="s">
         <v>47</v>
       </c>
@@ -46172,7 +46172,7 @@
         <v>2$SPPR-2784$ID-174</v>
       </c>
     </row>
-    <row r="397" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A397" s="6" t="s">
         <v>47</v>
       </c>
@@ -46277,7 +46277,7 @@
         <v>2$SPPR-2453$ID-175</v>
       </c>
     </row>
-    <row r="398" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A398" s="3" t="s">
         <v>47</v>
       </c>
@@ -46382,7 +46382,7 @@
         <v>2$SPPR-2688$ID-176</v>
       </c>
     </row>
-    <row r="399" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A399" s="6" t="s">
         <v>47</v>
       </c>
@@ -46481,7 +46481,7 @@
         <v>2$SPPR-2689$ID-177</v>
       </c>
     </row>
-    <row r="400" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A400" s="3" t="s">
         <v>47</v>
       </c>
@@ -46586,7 +46586,7 @@
         <v>2$SPPR-2714$ID-178</v>
       </c>
     </row>
-    <row r="401" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A401" s="6" t="s">
         <v>47</v>
       </c>
@@ -46691,7 +46691,7 @@
         <v>2$SPPR-2505$ID-179</v>
       </c>
     </row>
-    <row r="402" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A402" s="3" t="s">
         <v>47</v>
       </c>
@@ -46796,7 +46796,7 @@
         <v>2$SPPR-2519$ID-180</v>
       </c>
     </row>
-    <row r="403" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A403" s="6" t="s">
         <v>47</v>
       </c>
@@ -46901,7 +46901,7 @@
         <v>2$SPPR-2536$ID-181</v>
       </c>
     </row>
-    <row r="404" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A404" s="3" t="s">
         <v>47</v>
       </c>
@@ -47006,7 +47006,7 @@
         <v>2$SPPR-2537$ID-182</v>
       </c>
     </row>
-    <row r="405" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A405" s="6" t="s">
         <v>47</v>
       </c>
@@ -47111,7 +47111,7 @@
         <v>2$SPPR-2300$ID-183</v>
       </c>
     </row>
-    <row r="406" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A406" s="3" t="s">
         <v>47</v>
       </c>
@@ -47216,7 +47216,7 @@
         <v>2$SPFF-3048$ID-184</v>
       </c>
     </row>
-    <row r="407" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A407" s="6" t="s">
         <v>47</v>
       </c>
@@ -47315,7 +47315,7 @@
         <v>2$SPFF-3075$ID-185</v>
       </c>
     </row>
-    <row r="408" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A408" s="3" t="s">
         <v>47</v>
       </c>
@@ -47420,7 +47420,7 @@
         <v>2$SPPR-2496$ID-186</v>
       </c>
     </row>
-    <row r="409" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A409" s="6" t="s">
         <v>47</v>
       </c>
@@ -47525,7 +47525,7 @@
         <v>2$SPPR-2567$ID-187</v>
       </c>
     </row>
-    <row r="410" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A410" s="3" t="s">
         <v>47</v>
       </c>
@@ -47630,7 +47630,7 @@
         <v>2$SPPR-2568$ID-188</v>
       </c>
     </row>
-    <row r="411" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A411" s="6" t="s">
         <v>47</v>
       </c>
@@ -47735,7 +47735,7 @@
         <v>2$SPPR-2569$ID-189</v>
       </c>
     </row>
-    <row r="412" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A412" s="3" t="s">
         <v>47</v>
       </c>
@@ -47840,7 +47840,7 @@
         <v>2$SPPR-2586$ID-190</v>
       </c>
     </row>
-    <row r="413" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A413" s="6" t="s">
         <v>47</v>
       </c>
@@ -47945,7 +47945,7 @@
         <v>2$SPPR-2590$ID-191</v>
       </c>
     </row>
-    <row r="414" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A414" s="3" t="s">
         <v>47</v>
       </c>
@@ -48050,7 +48050,7 @@
         <v>2$SPPR-2610$ID-192</v>
       </c>
     </row>
-    <row r="415" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A415" s="6" t="s">
         <v>47</v>
       </c>
@@ -48155,7 +48155,7 @@
         <v>2$SPPR-2611$ID-193</v>
       </c>
     </row>
-    <row r="416" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A416" s="3" t="s">
         <v>47</v>
       </c>
@@ -48254,7 +48254,7 @@
         <v>2$SPPR-2612$ID-194</v>
       </c>
     </row>
-    <row r="417" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A417" s="6" t="s">
         <v>47</v>
       </c>
@@ -48359,7 +48359,7 @@
         <v>2$SPPR-2613$ID-195</v>
       </c>
     </row>
-    <row r="418" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A418" s="3" t="s">
         <v>47</v>
       </c>
@@ -48464,7 +48464,7 @@
         <v>2$SPPR-2620$ID-196</v>
       </c>
     </row>
-    <row r="419" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A419" s="6" t="s">
         <v>47</v>
       </c>
@@ -48569,7 +48569,7 @@
         <v>2$SPPR-2648$ID-197</v>
       </c>
     </row>
-    <row r="420" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A420" s="3" t="s">
         <v>47</v>
       </c>
@@ -48674,7 +48674,7 @@
         <v>2$SPPR-2658$ID-198</v>
       </c>
     </row>
-    <row r="421" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A421" s="6" t="s">
         <v>47</v>
       </c>
@@ -48779,7 +48779,7 @@
         <v>2$SPPR-2664$ID-199</v>
       </c>
     </row>
-    <row r="422" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A422" s="3" t="s">
         <v>47</v>
       </c>
@@ -48884,7 +48884,7 @@
         <v>2$SPFF-3012$ID-200</v>
       </c>
     </row>
-    <row r="423" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A423" s="6" t="s">
         <v>47</v>
       </c>
@@ -48989,7 +48989,7 @@
         <v>2$SPPR-2428$ID-201</v>
       </c>
     </row>
-    <row r="424" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A424" s="3" t="s">
         <v>47</v>
       </c>
@@ -49094,7 +49094,7 @@
         <v>2$SPPR-2772$ID-202</v>
       </c>
     </row>
-    <row r="425" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A425" s="6" t="s">
         <v>47</v>
       </c>
@@ -49199,7 +49199,7 @@
         <v>2$SPPR-2500$ID-203</v>
       </c>
     </row>
-    <row r="426" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A426" s="3" t="s">
         <v>47</v>
       </c>
@@ -49304,7 +49304,7 @@
         <v>2$SPPR-2772$ID-204</v>
       </c>
     </row>
-    <row r="427" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A427" s="6" t="s">
         <v>47</v>
       </c>
@@ -49409,7 +49409,7 @@
         <v>2$SPPR-2502$ID-205</v>
       </c>
     </row>
-    <row r="428" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A428" s="3" t="s">
         <v>47</v>
       </c>
@@ -49514,7 +49514,7 @@
         <v>2$SPPR-2503$ID-206</v>
       </c>
     </row>
-    <row r="429" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A429" s="6" t="s">
         <v>47</v>
       </c>
@@ -49619,7 +49619,7 @@
         <v>2$SPPR-2504$ID-207</v>
       </c>
     </row>
-    <row r="430" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A430" s="3" t="s">
         <v>47</v>
       </c>
@@ -49724,7 +49724,7 @@
         <v>2$SPFF-2818$ID-208</v>
       </c>
     </row>
-    <row r="431" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A431" s="6" t="s">
         <v>47</v>
       </c>
@@ -49829,7 +49829,7 @@
         <v>2$SPFF-3031$ID-209</v>
       </c>
     </row>
-    <row r="432" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A432" s="3" t="s">
         <v>47</v>
       </c>
@@ -49934,7 +49934,7 @@
         <v>2$SPFF-3052$ID-210</v>
       </c>
     </row>
-    <row r="433" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A433" s="6" t="s">
         <v>47</v>
       </c>
@@ -50039,7 +50039,7 @@
         <v>2$SPFF-3105$ID-211</v>
       </c>
     </row>
-    <row r="434" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A434" s="3" t="s">
         <v>47</v>
       </c>
@@ -50144,7 +50144,7 @@
         <v>2$SPFF-3112$ID-212</v>
       </c>
     </row>
-    <row r="435" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A435" s="6" t="s">
         <v>47</v>
       </c>
@@ -50249,7 +50249,7 @@
         <v>2$SPPR-2464$ID-213</v>
       </c>
     </row>
-    <row r="436" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A436" s="3" t="s">
         <v>47</v>
       </c>
@@ -50354,7 +50354,7 @@
         <v>2$SPPR-2465$ID-214</v>
       </c>
     </row>
-    <row r="437" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A437" s="6" t="s">
         <v>47</v>
       </c>
@@ -50459,7 +50459,7 @@
         <v>2$SPPR-2482$ID-215</v>
       </c>
     </row>
-    <row r="438" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A438" s="3" t="s">
         <v>47</v>
       </c>
@@ -50564,7 +50564,7 @@
         <v>2$SPPR-2588$ID-216</v>
       </c>
     </row>
-    <row r="439" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A439" s="6" t="s">
         <v>47</v>
       </c>
@@ -50669,7 +50669,7 @@
         <v>2$SPPR-2789$ID-217</v>
       </c>
     </row>
-    <row r="440" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A440" s="3" t="s">
         <v>47</v>
       </c>
@@ -50774,7 +50774,7 @@
         <v>2$SPPR-2790$ID-218</v>
       </c>
     </row>
-    <row r="441" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A441" s="6" t="s">
         <v>47</v>
       </c>
@@ -50879,7 +50879,7 @@
         <v>2$SPPR-2791$ID-219</v>
       </c>
     </row>
-    <row r="442" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A442" s="3" t="s">
         <v>47</v>
       </c>
@@ -50984,7 +50984,7 @@
         <v>2$SPFF-3064$ID-220</v>
       </c>
     </row>
-    <row r="443" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A443" s="6" t="s">
         <v>47</v>
       </c>
@@ -51089,7 +51089,7 @@
         <v>2$SPFF-3067$ID-221</v>
       </c>
     </row>
-    <row r="444" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A444" s="3" t="s">
         <v>47</v>
       </c>
@@ -51194,7 +51194,7 @@
         <v>2$SPPR-2497$ID-222</v>
       </c>
     </row>
-    <row r="445" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A445" s="6" t="s">
         <v>47</v>
       </c>
@@ -51299,7 +51299,7 @@
         <v>2$SPPR-2498$ID-223</v>
       </c>
     </row>
-    <row r="446" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A446" s="3" t="s">
         <v>47</v>
       </c>
@@ -51404,7 +51404,7 @@
         <v>2$SPPR-2587$ID-224</v>
       </c>
     </row>
-    <row r="447" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A447" s="6" t="s">
         <v>47</v>
       </c>
@@ -51509,7 +51509,7 @@
         <v>2$SPPR-2601$ID-225</v>
       </c>
     </row>
-    <row r="448" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A448" s="3" t="s">
         <v>47</v>
       </c>
@@ -51614,7 +51614,7 @@
         <v>2$SPPR-2608$ID-226</v>
       </c>
     </row>
-    <row r="449" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A449" s="6" t="s">
         <v>47</v>
       </c>
@@ -51719,7 +51719,7 @@
         <v>2$SPPR-2622$ID-227</v>
       </c>
     </row>
-    <row r="450" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A450" s="3" t="s">
         <v>47</v>
       </c>
@@ -51824,7 +51824,7 @@
         <v>2$SPPR-2624$ID-228</v>
       </c>
     </row>
-    <row r="451" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A451" s="6" t="s">
         <v>47</v>
       </c>
@@ -51923,7 +51923,7 @@
         <v>2$SPPR-2625$ID-229</v>
       </c>
     </row>
-    <row r="452" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A452" s="3" t="s">
         <v>47</v>
       </c>
@@ -52028,7 +52028,7 @@
         <v>2$SPPR-2637$ID-230</v>
       </c>
     </row>
-    <row r="453" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A453" s="6" t="s">
         <v>47</v>
       </c>
@@ -52133,7 +52133,7 @@
         <v>2$SPPR-2638$ID-231</v>
       </c>
     </row>
-    <row r="454" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A454" s="3" t="s">
         <v>47</v>
       </c>
@@ -52238,7 +52238,7 @@
         <v>2$SPPR-2639$ID-232</v>
       </c>
     </row>
-    <row r="455" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A455" s="6" t="s">
         <v>47</v>
       </c>
@@ -52343,7 +52343,7 @@
         <v>2$SPPR-2640$ID-233</v>
       </c>
     </row>
-    <row r="456" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A456" s="3" t="s">
         <v>47</v>
       </c>
@@ -52448,7 +52448,7 @@
         <v>2$SPPR-2641$ID-234</v>
       </c>
     </row>
-    <row r="457" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A457" s="6" t="s">
         <v>47</v>
       </c>
@@ -52553,7 +52553,7 @@
         <v>2$SPPR-2642$ID-235</v>
       </c>
     </row>
-    <row r="458" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A458" s="3" t="s">
         <v>47</v>
       </c>
@@ -52652,7 +52652,7 @@
         <v>2$SPPR-2643$ID-236</v>
       </c>
     </row>
-    <row r="459" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A459" s="6" t="s">
         <v>47</v>
       </c>
@@ -52757,7 +52757,7 @@
         <v>2$SPPR-2656$ID-237</v>
       </c>
     </row>
-    <row r="460" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A460" s="3" t="s">
         <v>47</v>
       </c>
@@ -52862,7 +52862,7 @@
         <v>2$SPPR-2666$ID-238</v>
       </c>
     </row>
-    <row r="461" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A461" s="6" t="s">
         <v>47</v>
       </c>
@@ -52967,7 +52967,7 @@
         <v>2$SPPR-2667$ID-239</v>
       </c>
     </row>
-    <row r="462" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A462" s="3" t="s">
         <v>47</v>
       </c>
@@ -53072,7 +53072,7 @@
         <v>2$SPPR-2698$ID-240</v>
       </c>
     </row>
-    <row r="463" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A463" s="6" t="s">
         <v>47</v>
       </c>
@@ -53177,7 +53177,7 @@
         <v>2$SPPR-2703$ID-241</v>
       </c>
     </row>
-    <row r="464" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A464" s="3" t="s">
         <v>47</v>
       </c>
@@ -53282,7 +53282,7 @@
         <v>2$SPPR-2704$ID-242</v>
       </c>
     </row>
-    <row r="465" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A465" s="6" t="s">
         <v>47</v>
       </c>
@@ -53387,7 +53387,7 @@
         <v>2$SPPR-2722$ID-243</v>
       </c>
     </row>
-    <row r="466" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A466" s="3" t="s">
         <v>47</v>
       </c>
@@ -53507,12 +53507,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="str">
         <f>CONCATENATE("2$",B2,"$ID-",INT(C2))</f>
         <v>2$$ID-0</v>
